--- a/TS Jatai Working/Padam Input Templates/TS 3.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 3.5 Padam Input Template.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.1'!$C$1:$V$1791</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5027" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5029" uniqueCount="1402">
   <si>
     <t>PS</t>
   </si>
@@ -4238,7 +4238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4914,10 +4914,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1784" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A811" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="M1791" sqref="A1791:XFD1791"/>
+      <selection pane="bottomLeft" activeCell="S815" sqref="S815"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -28528,7 +28528,9 @@
       <c r="P615" s="7"/>
       <c r="Q615" s="7"/>
       <c r="R615" s="7"/>
-      <c r="S615" s="7"/>
+      <c r="S615" s="7" t="s">
+        <v>1394</v>
+      </c>
       <c r="T615" s="7"/>
       <c r="U615" s="7"/>
       <c r="V615" s="45"/>
@@ -30939,7 +30941,7 @@
         <f t="shared" si="32"/>
         <v>128</v>
       </c>
-      <c r="N680" s="45" t="s">
+      <c r="N680" s="46" t="s">
         <v>554</v>
       </c>
       <c r="O680" s="6"/>
@@ -35121,7 +35123,7 @@
         <f t="shared" si="38"/>
         <v>51</v>
       </c>
-      <c r="N796" s="45" t="s">
+      <c r="N796" s="46" t="s">
         <v>147</v>
       </c>
       <c r="O796" s="7" t="s">
@@ -36042,7 +36044,9 @@
       <c r="P821" s="7"/>
       <c r="Q821" s="7"/>
       <c r="R821" s="7"/>
-      <c r="S821" s="7"/>
+      <c r="S821" s="7" t="s">
+        <v>1394</v>
+      </c>
       <c r="T821" s="7"/>
       <c r="U821" s="7"/>
       <c r="V821" s="45"/>

--- a/TS Jatai Working/Padam Input Templates/TS 3.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 3.5 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5029" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5032" uniqueCount="1403">
   <si>
     <t>PS</t>
   </si>
@@ -4233,6 +4233,9 @@
   </si>
   <si>
     <t>NE+NSE+NRE</t>
+  </si>
+  <si>
+    <t>(to drop visargam with next word)</t>
   </si>
 </sst>
 </file>
@@ -4364,7 +4367,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4401,6 +4404,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4429,7 +4438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4631,6 +4640,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4915,9 +4930,9 @@
   <dimension ref="A1:V2393"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A811" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1729" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="S815" sqref="S815"/>
+      <selection pane="bottomLeft" activeCell="N1730" sqref="N1730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -57613,7 +57628,9 @@
       <c r="P1415" s="7"/>
       <c r="Q1415" s="7"/>
       <c r="R1415" s="7"/>
-      <c r="S1415" s="7"/>
+      <c r="S1415" s="7" t="s">
+        <v>1394</v>
+      </c>
       <c r="T1415" s="7"/>
       <c r="U1415" s="7"/>
       <c r="V1415" s="45"/>
@@ -62651,7 +62668,7 @@
         <f t="shared" si="74"/>
         <v>13</v>
       </c>
-      <c r="N1550" s="45" t="s">
+      <c r="N1550" s="73" t="s">
         <v>888</v>
       </c>
       <c r="O1550" s="7"/>
@@ -62664,8 +62681,10 @@
       <c r="T1550" s="7" t="s">
         <v>1283</v>
       </c>
-      <c r="U1550" s="7"/>
-      <c r="V1550" s="45"/>
+      <c r="U1550" s="72" t="s">
+        <v>1402</v>
+      </c>
+      <c r="V1550" s="73"/>
     </row>
     <row r="1551" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1551" s="56" t="s">
@@ -64710,6 +64729,9 @@
         <v>925</v>
       </c>
       <c r="O1609" s="7"/>
+      <c r="S1609" s="1" t="s">
+        <v>1394</v>
+      </c>
       <c r="V1609" s="45"/>
     </row>
     <row r="1610" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 3.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 3.5 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CAB36D-8737-427A-8DAF-0B77CAF05BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF324F04-6A33-423C-934B-F99C71201205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5060" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5065" uniqueCount="1398">
   <si>
     <t>PS</t>
   </si>
@@ -4375,7 +4375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4403,6 +4403,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4434,7 +4440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4625,6 +4631,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4908,10 +4920,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2393"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1781" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A1792" sqref="A1792"/>
+      <selection pane="bottomLeft" activeCell="S284" sqref="S284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -11334,7 +11346,9 @@
       <c r="N150" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="O150" s="7"/>
+      <c r="O150" s="67" t="s">
+        <v>1</v>
+      </c>
       <c r="P150" s="7"/>
       <c r="Q150" s="7"/>
       <c r="R150" s="7"/>
@@ -11992,7 +12006,9 @@
       <c r="N167" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="O167" s="7"/>
+      <c r="O167" s="67" t="s">
+        <v>1</v>
+      </c>
       <c r="P167" s="7"/>
       <c r="Q167" s="7"/>
       <c r="R167" s="7"/>
@@ -19621,7 +19637,9 @@
       <c r="N368" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="O368" s="6"/>
+      <c r="O368" s="68" t="s">
+        <v>1</v>
+      </c>
       <c r="P368" s="7"/>
       <c r="Q368" s="7"/>
       <c r="R368" s="7"/>
@@ -20152,7 +20170,9 @@
       <c r="N382" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="O382" s="7"/>
+      <c r="O382" s="67" t="s">
+        <v>1</v>
+      </c>
       <c r="P382" s="7"/>
       <c r="Q382" s="7"/>
       <c r="R382" s="7"/>
@@ -20690,7 +20710,9 @@
       <c r="N396" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="O396" s="6"/>
+      <c r="O396" s="68" t="s">
+        <v>1</v>
+      </c>
       <c r="P396" s="7"/>
       <c r="Q396" s="7"/>
       <c r="R396" s="7"/>
@@ -26624,7 +26646,7 @@
         <f t="shared" si="26"/>
         <v>96</v>
       </c>
-      <c r="N552" s="66" t="s">
+      <c r="N552" s="49" t="s">
         <v>440</v>
       </c>
       <c r="O552" s="7"/>
@@ -39391,7 +39413,7 @@
         <f t="shared" si="41"/>
         <v>151</v>
       </c>
-      <c r="N896" s="66" t="s">
+      <c r="N896" s="49" t="s">
         <v>1250</v>
       </c>
       <c r="O896" s="6"/>
@@ -44146,7 +44168,7 @@
         <f t="shared" si="47"/>
         <v>130</v>
       </c>
-      <c r="N1026" s="66" t="s">
+      <c r="N1026" s="49" t="s">
         <v>1258</v>
       </c>
       <c r="O1026" s="6"/>
@@ -50143,7 +50165,7 @@
         <f t="shared" si="56"/>
         <v>167</v>
       </c>
-      <c r="N1193" s="66" t="s">
+      <c r="N1193" s="49" t="s">
         <v>319</v>
       </c>
       <c r="O1193" s="32"/>
@@ -52476,7 +52498,7 @@
         <f t="shared" si="59"/>
         <v>64</v>
       </c>
-      <c r="N1257" s="66" t="s">
+      <c r="N1257" s="49" t="s">
         <v>825</v>
       </c>
       <c r="O1257" s="7"/>
@@ -57702,7 +57724,7 @@
         <f t="shared" si="65"/>
         <v>143</v>
       </c>
-      <c r="N1400" s="66" t="s">
+      <c r="N1400" s="49" t="s">
         <v>344</v>
       </c>
       <c r="O1400" s="6"/>
@@ -62778,7 +62800,7 @@
         <f t="shared" si="71"/>
         <v>137</v>
       </c>
-      <c r="N1537" s="66" t="s">
+      <c r="N1537" s="49" t="s">
         <v>892</v>
       </c>
       <c r="O1537" s="7"/>

--- a/TS Jatai Working/Padam Input Templates/TS 3.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 3.5 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF324F04-6A33-423C-934B-F99C71201205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028FA333-FB90-4158-933A-860DE3D7629B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4923,7 +4923,7 @@
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="S284" sqref="S284"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/Padam Input Templates/TS 3.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 3.5 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028FA333-FB90-4158-933A-860DE3D7629B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA103D2B-408D-476C-9A90-5D9EAD47FECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4440,7 +4440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4637,6 +4637,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4921,9 +4924,9 @@
   <dimension ref="A1:V2393"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomLeft" activeCell="N123" sqref="N123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -10291,8 +10294,8 @@
         <f t="shared" si="5"/>
         <v>122</v>
       </c>
-      <c r="N123" s="43" t="s">
-        <v>231</v>
+      <c r="N123" s="69" t="s">
+        <v>226</v>
       </c>
       <c r="O123" s="6"/>
       <c r="P123" s="7"/>

--- a/TS Jatai Working/Padam Input Templates/TS 3.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 3.5 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA103D2B-408D-476C-9A90-5D9EAD47FECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B6DCB-BCFD-44FE-BB29-C2293CB3302A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4375,7 +4375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4397,12 +4397,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4440,7 +4434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4629,17 +4623,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4923,10 +4911,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1787" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N123" sqref="N123"/>
+      <selection pane="bottomLeft" activeCell="N1791" sqref="N1791"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -10294,7 +10282,7 @@
         <f t="shared" si="5"/>
         <v>122</v>
       </c>
-      <c r="N123" s="69" t="s">
+      <c r="N123" s="49" t="s">
         <v>226</v>
       </c>
       <c r="O123" s="6"/>
@@ -11349,7 +11337,7 @@
       <c r="N150" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="O150" s="67" t="s">
+      <c r="O150" s="66" t="s">
         <v>1</v>
       </c>
       <c r="P150" s="7"/>
@@ -12009,7 +11997,7 @@
       <c r="N167" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="O167" s="67" t="s">
+      <c r="O167" s="66" t="s">
         <v>1</v>
       </c>
       <c r="P167" s="7"/>
@@ -14268,7 +14256,7 @@
         <f t="shared" si="11"/>
         <v>225</v>
       </c>
-      <c r="N226" s="66" t="s">
+      <c r="N226" s="49" t="s">
         <v>1235</v>
       </c>
       <c r="O226" s="7" t="s">
@@ -19640,7 +19628,7 @@
       <c r="N368" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="O368" s="68" t="s">
+      <c r="O368" s="67" t="s">
         <v>1</v>
       </c>
       <c r="P368" s="7"/>
@@ -20173,7 +20161,7 @@
       <c r="N382" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="O382" s="67" t="s">
+      <c r="O382" s="66" t="s">
         <v>1</v>
       </c>
       <c r="P382" s="7"/>
@@ -20713,7 +20701,7 @@
       <c r="N396" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="O396" s="68" t="s">
+      <c r="O396" s="67" t="s">
         <v>1</v>
       </c>
       <c r="P396" s="7"/>
@@ -23019,7 +23007,7 @@
         <f t="shared" si="23"/>
         <v>230</v>
       </c>
-      <c r="N456" s="66" t="s">
+      <c r="N456" s="49" t="s">
         <v>1236</v>
       </c>
       <c r="O456" s="7" t="s">
@@ -33927,7 +33915,7 @@
         <f t="shared" si="35"/>
         <v>193</v>
       </c>
-      <c r="N745" s="66" t="s">
+      <c r="N745" s="49" t="s">
         <v>510</v>
       </c>
       <c r="O745" s="32"/>
@@ -70848,7 +70836,7 @@
         <f t="shared" si="83"/>
         <v>254</v>
       </c>
-      <c r="N1791" s="66" t="s">
+      <c r="N1791" s="49" t="s">
         <v>151</v>
       </c>
       <c r="O1791" s="60"/>

--- a/TS Jatai Working/Padam Input Templates/TS 3.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 3.5 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E3FFA8-4733-4265-99DE-2A478DD297DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7345E2-8295-4610-A22B-17956DBC2744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6483" uniqueCount="1401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6483" uniqueCount="1400">
   <si>
     <t>PS</t>
   </si>
@@ -4236,9 +4236,6 @@
   </si>
   <si>
     <t>VIN</t>
-  </si>
-  <si>
-    <t>NRE</t>
   </si>
 </sst>
 </file>
@@ -4900,7 +4897,7 @@
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="U941" sqref="U941"/>
+      <selection pane="bottomLeft" activeCell="U1752" sqref="U1752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -39305,7 +39302,7 @@
       <c r="S941" s="7"/>
       <c r="T941" s="7"/>
       <c r="U941" s="7" t="s">
-        <v>1400</v>
+        <v>80</v>
       </c>
       <c r="V941" s="36" t="s">
         <v>1329</v>
@@ -64772,7 +64769,7 @@
         <f t="shared" si="80"/>
         <v>149</v>
       </c>
-      <c r="N1686" s="36" t="s">
+      <c r="N1686" s="49" t="s">
         <v>292</v>
       </c>
       <c r="V1686" s="36" t="s">
@@ -64804,7 +64801,7 @@
         <f t="shared" si="80"/>
         <v>150</v>
       </c>
-      <c r="N1687" s="36" t="s">
+      <c r="N1687" s="49" t="s">
         <v>549</v>
       </c>
       <c r="O1687" s="7"/>
@@ -64842,7 +64839,7 @@
         <f t="shared" si="80"/>
         <v>151</v>
       </c>
-      <c r="N1688" s="36" t="s">
+      <c r="N1688" s="49" t="s">
         <v>320</v>
       </c>
       <c r="O1688" s="6"/>
@@ -65105,7 +65102,7 @@
         <f t="shared" si="80"/>
         <v>159</v>
       </c>
-      <c r="N1696" s="36" t="s">
+      <c r="N1696" s="49" t="s">
         <v>292</v>
       </c>
       <c r="P1696" s="7"/>
@@ -65135,7 +65132,7 @@
         <f t="shared" si="80"/>
         <v>160</v>
       </c>
-      <c r="N1697" s="36" t="s">
+      <c r="N1697" s="49" t="s">
         <v>549</v>
       </c>
       <c r="O1697" s="6"/>
@@ -65171,7 +65168,7 @@
         <f t="shared" si="80"/>
         <v>161</v>
       </c>
-      <c r="N1698" s="36" t="s">
+      <c r="N1698" s="49" t="s">
         <v>320</v>
       </c>
       <c r="V1698" s="36" t="s">
@@ -72504,7 +72501,6 @@
       <c r="V2393" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:V1791" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/Padam Input Templates/TS 3.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 3.5 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9EEED1-C3D5-4438-BB63-9A232D97FA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324081F1-7392-4A91-BF23-FEFC586C6A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4504,7 +4504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4690,6 +4690,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4973,10 +4976,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1791"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1100" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="O84" sqref="O84"/>
+      <selection pane="bottomLeft" activeCell="P1109" sqref="P1109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -28036,7 +28039,7 @@
         <f t="shared" si="29"/>
         <v>61</v>
       </c>
-      <c r="N613" s="62" t="s">
+      <c r="N613" s="64" t="s">
         <v>472</v>
       </c>
       <c r="O613" s="6"/>
@@ -45080,7 +45083,7 @@
         <f t="shared" si="53"/>
         <v>82</v>
       </c>
-      <c r="N1108" s="49" t="s">
+      <c r="N1108" s="64" t="s">
         <v>732</v>
       </c>
       <c r="O1108" s="6"/>
@@ -45113,7 +45116,7 @@
         <f t="shared" si="53"/>
         <v>83</v>
       </c>
-      <c r="N1109" s="49" t="s">
+      <c r="N1109" s="64" t="s">
         <v>561</v>
       </c>
       <c r="O1109" s="7"/>
@@ -45146,7 +45149,7 @@
         <f t="shared" si="53"/>
         <v>84</v>
       </c>
-      <c r="N1110" s="36" t="s">
+      <c r="N1110" s="64" t="s">
         <v>733</v>
       </c>
       <c r="O1110" s="6"/>
@@ -45182,7 +45185,7 @@
         <f t="shared" si="53"/>
         <v>85</v>
       </c>
-      <c r="N1111" s="49" t="s">
+      <c r="N1111" s="64" t="s">
         <v>732</v>
       </c>
       <c r="O1111" s="7"/>
@@ -45215,7 +45218,7 @@
         <f t="shared" si="53"/>
         <v>86</v>
       </c>
-      <c r="N1112" s="49" t="s">
+      <c r="N1112" s="64" t="s">
         <v>734</v>
       </c>
       <c r="O1112" s="7"/>
